--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3119945.617865767</v>
+        <v>3195475.287530573</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>155.1027740040948</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>79.22210190382118</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -835,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>9.275596830496628</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -871,7 +873,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>54.47555601903397</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.1115654877688</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>288.1457428395714</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>28.51033041214347</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>144.5450396847797</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>18.46983729274092</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>345.1470420880848</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>26.78648996044848</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>78.64571997422897</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1385,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113186</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1537,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -1546,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>60.16172393095724</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>230.0937208388734</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>158.0535265543396</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1825,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>27.37255160319442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>125.2036806833086</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2053,19 +2055,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>176.8688121773851</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2290,7 +2292,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2302,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>139.1537278750036</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
-        <v>118.4898845065123</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2798,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722634</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3007,16 +3009,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>30.04292954982498</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3044,10 +3046,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>79.37675471252307</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -3241,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>217.0073180276294</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3329,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3430,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>115.526976800218</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>206.7078495256</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3557,7 +3559,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>80.45677925363997</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3676,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>204.1291651532074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710098</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3946,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>283.3580910135614</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4034,7 +4036,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701364</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4138,19 +4140,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>20.99297442207056</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1160.852583904132</v>
+        <v>962.91501986716</v>
       </c>
       <c r="C2" t="n">
-        <v>1160.852583904132</v>
+        <v>962.91501986716</v>
       </c>
       <c r="D2" t="n">
-        <v>1160.852583904132</v>
+        <v>962.91501986716</v>
       </c>
       <c r="E2" t="n">
-        <v>775.0643313058872</v>
+        <v>962.91501986716</v>
       </c>
       <c r="F2" t="n">
-        <v>364.0784265162796</v>
+        <v>551.9291150775525</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>133.9653069757394</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4358,22 +4360,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W2" t="n">
-        <v>2311.057514205145</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X2" t="n">
-        <v>1937.591755944065</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="Y2" t="n">
-        <v>1547.452423968253</v>
+        <v>1349.514859931282</v>
       </c>
     </row>
     <row r="3">
@@ -4407,16 +4409,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810045</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="U4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1097.103316533935</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="C5" t="n">
-        <v>1097.103316533935</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D5" t="n">
-        <v>1097.103316533935</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,7 +4570,7 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834948</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X5" t="n">
-        <v>1873.842488573869</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="Y5" t="n">
-        <v>1483.703156598057</v>
+        <v>2090.6186503862</v>
       </c>
     </row>
     <row r="6">
@@ -4647,22 +4649,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190.2718927217162</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C7" t="n">
-        <v>190.2718927217162</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>229.6312428658945</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>82.74129536798412</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1336.435086552838</v>
+        <v>1189.50268270914</v>
       </c>
       <c r="C8" t="n">
-        <v>1336.435086552838</v>
+        <v>820.540165768728</v>
       </c>
       <c r="D8" t="n">
-        <v>978.1693879460875</v>
+        <v>820.540165768728</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>820.540165768728</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,10 +4807,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W8" t="n">
-        <v>2113.174258592771</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X8" t="n">
-        <v>2113.174258592771</v>
+        <v>1576.102522773261</v>
       </c>
       <c r="Y8" t="n">
-        <v>1723.03492661696</v>
+        <v>1576.102522773261</v>
       </c>
     </row>
     <row r="9">
@@ -4890,16 +4892,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>227.8899898843844</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="C10" t="n">
-        <v>227.8899898843844</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="D10" t="n">
-        <v>227.8899898843844</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="E10" t="n">
-        <v>227.8899898843844</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="F10" t="n">
-        <v>81.00004238647404</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G10" t="n">
-        <v>81.00004238647404</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>81.00004238647404</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>81.00004238647404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>409.5384547146241</v>
+        <v>648.6888630203443</v>
       </c>
       <c r="V10" t="n">
-        <v>409.5384547146241</v>
+        <v>648.6888630203443</v>
       </c>
       <c r="W10" t="n">
-        <v>409.5384547146241</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="X10" t="n">
-        <v>409.5384547146241</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="Y10" t="n">
-        <v>409.5384547146241</v>
+        <v>359.2716929833838</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155896</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805477</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>412.2823606383756</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="C13" t="n">
-        <v>412.2823606383756</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D13" t="n">
-        <v>412.2823606383756</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404653</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1438.146852445824</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1438.146852445824</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347409</v>
+        <v>1438.146852445824</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347409</v>
+        <v>1149.018213659383</v>
       </c>
       <c r="V13" t="n">
-        <v>1042.712955510163</v>
+        <v>894.3337254534956</v>
       </c>
       <c r="W13" t="n">
-        <v>1042.712955510163</v>
+        <v>604.9165554165351</v>
       </c>
       <c r="X13" t="n">
-        <v>814.7234046121455</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="Y13" t="n">
-        <v>593.9308254686154</v>
+        <v>376.9270045185177</v>
       </c>
     </row>
     <row r="14">
@@ -5273,16 +5275,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5300,7 +5302,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5312,7 +5314,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
@@ -5352,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>711.072954880832</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="C16" t="n">
-        <v>542.1367719529251</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557903</v>
+        <v>1339.266243735337</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>1050.137604948895</v>
       </c>
       <c r="V16" t="n">
-        <v>1209.787631771461</v>
+        <v>1050.137604948895</v>
       </c>
       <c r="W16" t="n">
-        <v>920.3704617345004</v>
+        <v>1050.137604948895</v>
       </c>
       <c r="X16" t="n">
-        <v>920.3704617345004</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="Y16" t="n">
-        <v>892.7214197110717</v>
+        <v>822.1480540508779</v>
       </c>
     </row>
     <row r="17">
@@ -5489,55 +5491,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5546,19 +5548,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>177.1795914149474</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>326.2492756170072</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636251</v>
+        <v>940.1463453738959</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>560.7969603949465</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>391.8607774670396</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>391.8607774670396</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>391.8607774670396</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765191</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V19" t="n">
-        <v>607.4268406407766</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W19" t="n">
-        <v>318.0096706038159</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>781.5895395384766</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>560.7969603949465</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514095</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765191</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706323</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336716</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5981,34 +5983,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6020,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,13 +6056,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6069,19 +6071,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6151,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,31 +6165,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1379.229518531123</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
         <v>97.21709146028584</v>
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6218,58 +6220,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028589</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899128</v>
@@ -6485,28 +6487,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N30" t="n">
-        <v>2032.925401907738</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O30" t="n">
-        <v>2312.465467126435</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
-        <v>2517.487947908644</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028589</v>
+        <v>734.8632439327646</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028589</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028589</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028589</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028589</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028589</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6637,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952638</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028589</v>
+        <v>955.6558230762947</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028589</v>
+        <v>734.8632439327646</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155904</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,16 +6776,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701562</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619851</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M33" t="n">
         <v>1198.760773441947</v>
@@ -6832,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>412.2823606383756</v>
+        <v>825.112461128548</v>
       </c>
       <c r="C34" t="n">
-        <v>412.2823606383756</v>
+        <v>656.1762782006411</v>
       </c>
       <c r="D34" t="n">
-        <v>412.2823606383756</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="E34" t="n">
-        <v>412.2823606383756</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404653</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028589</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6874,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1418.737730444243</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1218.817720359795</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1218.817720359795</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U34" t="n">
-        <v>929.6890815733536</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V34" t="n">
-        <v>929.6890815733536</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W34" t="n">
-        <v>640.271911536393</v>
+        <v>825.112461128548</v>
       </c>
       <c r="X34" t="n">
-        <v>412.2823606383756</v>
+        <v>825.112461128548</v>
       </c>
       <c r="Y34" t="n">
-        <v>412.2823606383756</v>
+        <v>825.112461128548</v>
       </c>
     </row>
     <row r="35">
@@ -6932,46 +6934,46 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
@@ -7011,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028589</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028589</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028589</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7111,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011507</v>
+        <v>755.3399342231696</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952638</v>
+        <v>755.3399342231696</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>465.9227641862091</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028589</v>
+        <v>465.9227641862091</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028589</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7169,37 +7171,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7208,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147082</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1333.825180851559</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1663.687808515592</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1943.227873734289</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3459.155393916676</v>
+        <v>528.105874218302</v>
       </c>
       <c r="C40" t="n">
-        <v>3459.155393916676</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D40" t="n">
-        <v>3459.155393916676</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E40" t="n">
-        <v>3459.155393916676</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F40" t="n">
-        <v>3459.155393916676</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G40" t="n">
-        <v>3459.155393916676</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>4660.934562929846</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>4437.149147719352</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U40" t="n">
-        <v>4148.02050893291</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V40" t="n">
-        <v>3893.336020727023</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="W40" t="n">
-        <v>3893.336020727023</v>
+        <v>609.3753482118777</v>
       </c>
       <c r="X40" t="n">
-        <v>3665.346469829006</v>
+        <v>609.3753482118777</v>
       </c>
       <c r="Y40" t="n">
-        <v>3459.155393916676</v>
+        <v>609.3753482118777</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7487,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028589</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7585,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011507</v>
+        <v>1212.69597660481</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952638</v>
+        <v>958.0114883989231</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028589</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028589</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,67 +7633,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7724,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4095.960335627917</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>4095.960335627917</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>3945.843696215581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>3924.638671546823</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>3777.748724048913</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>3609.573402368733</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4860.854573014294</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>4860.854573014294</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>4860.854573014294</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>4606.170084808407</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>4316.752914771447</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>4316.752914771447</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>4095.960335627917</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8295,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9009,7 +9011,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>288.4091825776746</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>38.86002301949895</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>306.1147370139963</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>288.4091825776746</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.7164198729829</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>306.114737013996</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>8.406710013101304</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10431,10 +10433,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>96.03744927814625</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>96.03744927814711</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10449,7 +10451,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10902,10 +10904,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>182.0340742867942</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11078,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208057</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11391,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23425,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>49.80262847283556</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>22.04392248495463</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23706,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>63.49403450404969</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23715,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.2121017489004</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,10 +23901,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>20.21736733962263</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23941,19 +23943,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>75.26883114644295</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24178,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>79.43092547709122</v>
       </c>
     </row>
     <row r="23">
@@ -24412,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0576765518769</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24649,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338523</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,10 +24840,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24886,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338523</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>195.6667258392122</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,10 +25077,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>30.58759769126971</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,16 +25131,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>69.51568030896158</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25318,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>79.52950287297736</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>99.37520092829733</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25564,10 +25566,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>14.45548819888742</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25834,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338523</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>2.87926138501598</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,19 +26028,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>125.4409882244986</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26071,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>737661.6364456248</v>
+        <v>737661.6364456249</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>737661.6364456249</v>
+        <v>737661.6364456248</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>737661.6364456248</v>
+        <v>737661.6364456249</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>737661.6364456248</v>
+        <v>737661.6364456246</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>737661.6364456249</v>
+        <v>737661.6364456246</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>737661.6364456248</v>
+        <v>737661.6364456246</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.4601380334</v>
+      </c>
+      <c r="C2" t="n">
+        <v>677359.460138033</v>
+      </c>
+      <c r="D2" t="n">
         <v>677359.4601380335</v>
       </c>
-      <c r="C2" t="n">
-        <v>677359.4601380336</v>
-      </c>
-      <c r="D2" t="n">
-        <v>677359.460138033</v>
-      </c>
       <c r="E2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="F2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.9485672193</v>
       </c>
       <c r="G2" t="n">
+        <v>645197.9485672197</v>
+      </c>
+      <c r="H2" t="n">
         <v>645197.9485672194</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>645197.9485672192</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645197.9485672194</v>
+      </c>
+      <c r="K2" t="n">
+        <v>645197.9485672193</v>
+      </c>
+      <c r="L2" t="n">
+        <v>645197.9485672194</v>
+      </c>
+      <c r="M2" t="n">
+        <v>645197.9485672191</v>
+      </c>
+      <c r="N2" t="n">
+        <v>645197.9485672194</v>
+      </c>
+      <c r="O2" t="n">
         <v>645197.9485672197</v>
       </c>
-      <c r="I2" t="n">
+      <c r="P2" t="n">
         <v>645197.9485672194</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645197.9485672192</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645197.9485672195</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645197.9485672191</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645197.9485672193</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645197.9485672192</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645197.9485672194</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645197.9485672195</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,7 +26426,7 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143905</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
         <v>15045.6696214391</v>
@@ -26436,28 +26438,28 @@
         <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143902</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>15045.66962143902</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.66962143903</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.66962143902</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.66962143899</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
-        <v>15045.66962143903</v>
+        <v>15045.6696214391</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="J5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871667</v>
-      </c>
       <c r="L5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-152242.455391143</v>
+        <v>-152242.4553911432</v>
       </c>
       <c r="C6" t="n">
-        <v>437725.4238234016</v>
+        <v>437725.423823401</v>
       </c>
       <c r="D6" t="n">
-        <v>437725.423823401</v>
+        <v>437725.4238234014</v>
       </c>
       <c r="E6" t="n">
-        <v>13004.91652016737</v>
+        <v>13004.91652016756</v>
       </c>
       <c r="F6" t="n">
-        <v>538164.9529970639</v>
+        <v>538164.9529970636</v>
       </c>
       <c r="G6" t="n">
+        <v>538164.952997064</v>
+      </c>
+      <c r="H6" t="n">
         <v>538164.9529970638</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
+        <v>538164.9529970635</v>
+      </c>
+      <c r="J6" t="n">
+        <v>361741.7338044708</v>
+      </c>
+      <c r="K6" t="n">
+        <v>538164.9529970636</v>
+      </c>
+      <c r="L6" t="n">
+        <v>538164.9529970638</v>
+      </c>
+      <c r="M6" t="n">
+        <v>403363.9377632262</v>
+      </c>
+      <c r="N6" t="n">
+        <v>538164.9529970638</v>
+      </c>
+      <c r="O6" t="n">
         <v>538164.952997064</v>
       </c>
-      <c r="I6" t="n">
+      <c r="P6" t="n">
         <v>538164.9529970638</v>
-      </c>
-      <c r="J6" t="n">
-        <v>361741.7338044705</v>
-      </c>
-      <c r="K6" t="n">
-        <v>538164.9529970639</v>
-      </c>
-      <c r="L6" t="n">
-        <v>538164.9529970634</v>
-      </c>
-      <c r="M6" t="n">
-        <v>403363.9377632263</v>
-      </c>
-      <c r="N6" t="n">
-        <v>538164.9529970635</v>
-      </c>
-      <c r="O6" t="n">
-        <v>538164.9529970638</v>
-      </c>
-      <c r="P6" t="n">
-        <v>538164.9529970639</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,40 +26746,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26796,7 +26798,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26811,25 +26813,25 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545561</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>258.6813960167002</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>244.700670860536</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27432,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27439,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27555,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>125.6900249618416</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27591,7 +27593,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>231.8063182229438</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0.1613262832387363</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>93.78462723269041</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>138.7994718469074</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -27816,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>141.7368345571981</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27853,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>363.4605327795209</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>61.72900365362659</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27916,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,19 +28022,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>18.41346922808852</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28065,13 +28067,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>207.6361542677488</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,10 +31928,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31938,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,10 +32165,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32175,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,10 +34122,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,37 +34134,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34238,7 +34240,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35015,7 +35017,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,19 +35260,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,28 +35412,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35491,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35649,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35728,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>537.666887533699</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>80.77020197440561</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>555.3724419700205</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36439,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>537.666887533699</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,25 +36597,25 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
         <v>59.82538970349858</v>
@@ -36674,22 +36676,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>555.3724419700203</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>96.41974279817546</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37008,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37071,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>345.2951542341706</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>406.4618263286133</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37387,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,13 +37624,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37637,7 +37639,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>389.1274892183189</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37719,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523304</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37956,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3195475.287530573</v>
+        <v>3188458.272638862</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>79.22210190382118</v>
+        <v>296.7650756691946</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>84.84244993117485</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -873,7 +873,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>54.47555601903397</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.1115654877688</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>245.9196712349435</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>28.51033041214347</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1135,19 +1135,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>345.1470420880848</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>43.80431246487684</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1305,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>78.64571997422897</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>101.780687729549</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784681</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>137.3004314589667</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>60.16172393095724</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>158.0535265543396</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>125.2036806833086</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>143.2925104849745</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>139.1537278750036</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505273959</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>183.1796758467</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>131.0867347140856</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>30.04292954982498</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3189,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,19 +3240,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>217.0073180276294</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>206.7078495256</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>80.45677925363997</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>206.806426921486</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>283.3580910135614</v>
+        <v>219.3945611646475</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>203.5330926723469</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>962.91501986716</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="C2" t="n">
-        <v>962.91501986716</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="D2" t="n">
-        <v>962.91501986716</v>
+        <v>1182.655397407941</v>
       </c>
       <c r="E2" t="n">
-        <v>962.91501986716</v>
+        <v>1182.655397407941</v>
       </c>
       <c r="F2" t="n">
-        <v>551.9291150775525</v>
+        <v>771.6694926183338</v>
       </c>
       <c r="G2" t="n">
-        <v>133.9653069757394</v>
+        <v>353.7056845165207</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4330,7 +4330,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V2" t="n">
-        <v>2092.422847177208</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W2" t="n">
-        <v>1739.654191907093</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X2" t="n">
-        <v>1739.654191907093</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y2" t="n">
-        <v>1349.514859931282</v>
+        <v>1540.921096014692</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>139.6424261952886</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>139.6424261952886</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>139.6424261952886</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124031</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810048</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>286.5323736931989</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2090.6186503862</v>
+        <v>2307.009759042411</v>
       </c>
       <c r="C5" t="n">
-        <v>1721.819089287443</v>
+        <v>1938.047242101999</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>1579.781543495249</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1193.993290897004</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>783.0073861073968</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4600,19 +4600,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2090.6186503862</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>2090.6186503862</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y5" t="n">
-        <v>2090.6186503862</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="6">
@@ -4664,7 +4664,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>546.4805193761945</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>377.5443364482876</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>377.5443364482876</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>229.6312428658945</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>82.74129536798412</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1189.50268270914</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="C8" t="n">
-        <v>820.540165768728</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>820.540165768728</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>820.540165768728</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4807,10 +4807,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2652.90231075067</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2652.90231075067</v>
       </c>
       <c r="U8" t="n">
-        <v>2302.336936304455</v>
+        <v>2652.90231075067</v>
       </c>
       <c r="V8" t="n">
-        <v>2302.336936304455</v>
+        <v>2321.839423407099</v>
       </c>
       <c r="W8" t="n">
-        <v>1949.568281034341</v>
+        <v>1969.070768136985</v>
       </c>
       <c r="X8" t="n">
-        <v>1576.102522773261</v>
+        <v>1595.605009875905</v>
       </c>
       <c r="Y8" t="n">
-        <v>1576.102522773261</v>
+        <v>1205.465677900094</v>
       </c>
     </row>
     <row r="9">
@@ -4892,16 +4892,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>359.2716929833838</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4995,19 +4995,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>648.6888630203443</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>648.6888630203443</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>359.2716929833838</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="X10" t="n">
-        <v>359.2716929833838</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y10" t="n">
-        <v>359.2716929833838</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="11">
@@ -5026,40 +5026,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5068,19 +5068,19 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590536</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>376.9270045185177</v>
+        <v>554.4977260965287</v>
       </c>
       <c r="C13" t="n">
-        <v>376.9270045185177</v>
+        <v>554.4977260965287</v>
       </c>
       <c r="D13" t="n">
-        <v>376.9270045185177</v>
+        <v>554.4977260965287</v>
       </c>
       <c r="E13" t="n">
-        <v>376.9270045185177</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185177</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1438.146852445824</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1438.146852445824</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1438.146852445824</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1149.018213659383</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V13" t="n">
-        <v>894.3337254534956</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W13" t="n">
-        <v>604.9165554165351</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="X13" t="n">
-        <v>376.9270045185177</v>
+        <v>736.1461909267684</v>
       </c>
       <c r="Y13" t="n">
-        <v>376.9270045185177</v>
+        <v>736.1461909267684</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5281,7 +5281,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1339.266243735337</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1050.137604948895</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>1050.137604948895</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>1050.137604948895</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5494,31 +5494,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G17" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,10 +5533,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5548,16 +5548,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>177.1795914149474</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>326.2492756170072</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>940.1463453738959</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>560.7969603949465</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>391.8607774670396</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>391.8607774670396</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>391.8607774670396</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5703,22 +5703,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1298.996260473455</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>1298.996260473455</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>1009.579090436494</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>781.5895395384766</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>560.7969603949465</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5752,28 +5752,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1009.867621687013</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>755.183133481126</v>
+        <v>1354.17636097712</v>
       </c>
       <c r="W22" t="n">
-        <v>465.7659634441654</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="X22" t="n">
-        <v>237.776412546148</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -6013,28 +6013,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6174,22 +6174,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
         <v>97.21709146028584</v>
@@ -6205,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6214,13 +6214,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6253,10 +6253,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6265,10 +6265,10 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6411,22 +6411,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
         <v>97.21709146028584</v>
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514093</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>734.8632439327646</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="C31" t="n">
-        <v>565.9270610048577</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="D31" t="n">
-        <v>415.8104215925219</v>
+        <v>635.9655670641829</v>
       </c>
       <c r="E31" t="n">
-        <v>415.8104215925219</v>
+        <v>488.0524734817898</v>
       </c>
       <c r="F31" t="n">
-        <v>415.8104215925219</v>
+        <v>341.1625259838794</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>341.1625259838794</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W31" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="X31" t="n">
-        <v>955.6558230762947</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="Y31" t="n">
-        <v>734.8632439327646</v>
+        <v>786.0822064765186</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6721,7 +6721,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6779,28 +6779,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>825.112461128548</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>656.1762782006411</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6888,22 +6888,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1298.996260473455</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>1044.311772267568</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>825.112461128548</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>825.112461128548</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>825.112461128548</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6973,7 +6973,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>245.130185042679</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C37" t="n">
-        <v>245.130185042679</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="D37" t="n">
-        <v>245.130185042679</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>755.3399342231696</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>755.3399342231696</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W37" t="n">
-        <v>465.9227641862091</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X37" t="n">
-        <v>465.9227641862091</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y37" t="n">
-        <v>245.130185042679</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,10 +7162,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7174,10 +7174,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7192,10 +7192,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7259,22 +7259,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>528.105874218302</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1187.92115703528</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U40" t="n">
-        <v>898.7925182488384</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V40" t="n">
-        <v>898.7925182488384</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W40" t="n">
-        <v>609.3753482118777</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X40" t="n">
-        <v>609.3753482118777</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
-        <v>609.3753482118777</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,31 +7390,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,10 +7429,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>266.1532743881928</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1212.69597660481</v>
+        <v>853.6001774198821</v>
       </c>
       <c r="V43" t="n">
-        <v>958.0114883989231</v>
+        <v>853.6001774198821</v>
       </c>
       <c r="W43" t="n">
-        <v>668.5943183619626</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="X43" t="n">
-        <v>668.5943183619626</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="Y43" t="n">
-        <v>447.8017392184324</v>
+        <v>564.1830073829216</v>
       </c>
     </row>
     <row r="44">
@@ -7627,52 +7627,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>38.86002301949895</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>306.1147370139963</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>306.114737013996</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>96.03744927814711</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>9.1335311876025</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>49.80262847283556</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,19 +23703,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>63.49403450404969</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,10 +23901,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>20.21736733962263</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23943,22 +23943,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,16 +24177,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>79.43092547709122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>103.0576765518773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,25 +24840,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>17.8270936534505</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>195.6667258392122</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,25 +25077,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,19 +25128,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>69.51568030896158</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,7 +25329,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>30.42394386102401</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>79.52950287297736</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>99.37520092829733</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25566,10 +25566,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>14.74113413690327</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25836,16 +25836,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>2.87926138501598</v>
+        <v>66.84279123392983</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>82.98990566424411</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>737661.6364456249</v>
+        <v>737661.6364456248</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>737661.6364456249</v>
+        <v>737661.6364456248</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>737661.6364456249</v>
+        <v>737661.6364456248</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>737661.6364456246</v>
+        <v>737661.6364456248</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>737661.6364456246</v>
+        <v>737661.6364456248</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>737661.6364456246</v>
+        <v>737661.6364456248</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.460138033</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380335</v>
       </c>
       <c r="E2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672193</v>
       </c>
       <c r="F2" t="n">
         <v>645197.9485672193</v>
       </c>
       <c r="G2" t="n">
-        <v>645197.9485672197</v>
+        <v>645197.9485672193</v>
       </c>
       <c r="H2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672193</v>
       </c>
       <c r="I2" t="n">
-        <v>645197.9485672192</v>
+        <v>645197.9485672195</v>
       </c>
       <c r="J2" t="n">
         <v>645197.9485672194</v>
       </c>
       <c r="K2" t="n">
-        <v>645197.9485672193</v>
+        <v>645197.9485672195</v>
       </c>
       <c r="L2" t="n">
         <v>645197.9485672194</v>
       </c>
       <c r="M2" t="n">
-        <v>645197.9485672191</v>
+        <v>645197.9485672192</v>
       </c>
       <c r="N2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672197</v>
       </c>
       <c r="O2" t="n">
-        <v>645197.9485672197</v>
+        <v>645197.9485672193</v>
       </c>
       <c r="P2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672195</v>
       </c>
     </row>
     <row r="3">
@@ -26426,7 +26426,7 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143914</v>
       </c>
       <c r="F4" t="n">
         <v>15045.6696214391</v>
@@ -26438,7 +26438,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143915</v>
       </c>
       <c r="J4" t="n">
         <v>15045.6696214391</v>
@@ -26496,7 +26496,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
@@ -26505,13 +26505,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="O5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="P5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-152242.4553911432</v>
       </c>
       <c r="C6" t="n">
-        <v>437725.423823401</v>
+        <v>437725.4238234014</v>
       </c>
       <c r="D6" t="n">
         <v>437725.4238234014</v>
       </c>
       <c r="E6" t="n">
-        <v>13004.91652016756</v>
+        <v>12030.32526044576</v>
       </c>
       <c r="F6" t="n">
-        <v>538164.9529970636</v>
+        <v>537190.361737342</v>
       </c>
       <c r="G6" t="n">
-        <v>538164.952997064</v>
+        <v>537190.361737342</v>
       </c>
       <c r="H6" t="n">
-        <v>538164.9529970638</v>
+        <v>537190.361737342</v>
       </c>
       <c r="I6" t="n">
-        <v>538164.9529970635</v>
+        <v>537190.3617373421</v>
       </c>
       <c r="J6" t="n">
-        <v>361741.7338044708</v>
+        <v>360767.1425447491</v>
       </c>
       <c r="K6" t="n">
-        <v>538164.9529970636</v>
+        <v>537190.3617373422</v>
       </c>
       <c r="L6" t="n">
-        <v>538164.9529970638</v>
+        <v>537190.3617373421</v>
       </c>
       <c r="M6" t="n">
-        <v>403363.9377632262</v>
+        <v>402389.3465035046</v>
       </c>
       <c r="N6" t="n">
-        <v>538164.9529970638</v>
+        <v>537190.3617373423</v>
       </c>
       <c r="O6" t="n">
-        <v>538164.952997064</v>
+        <v>537190.361737342</v>
       </c>
       <c r="P6" t="n">
-        <v>538164.9529970638</v>
+        <v>537190.3617373422</v>
       </c>
     </row>
   </sheetData>
@@ -26764,7 +26764,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26773,10 +26773,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>244.700670860536</v>
+        <v>27.15769709516252</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27557,7 +27557,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>50.12317186116337</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27593,7 +27593,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>231.8063182229438</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27618,19 +27618,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1613262832387363</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>167.8644987858515</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27672,19 +27672,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>138.7994718469074</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27855,19 +27855,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>61.72900365362659</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.6114003440947</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28025,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28067,19 +28067,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>207.6361542677488</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>184.742310607042</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28155,7 +28155,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -29058,7 +29058,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1.179500941361766e-12</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,19 +35260,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>80.77020197440561</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>555.3724419700205</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
@@ -36217,10 +36217,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>555.3724419700203</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37156,7 +37156,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>406.4618263286133</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,25 +37627,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768312</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3188458.272638862</v>
+        <v>3193397.535487892</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8643724.351692522</v>
+        <v>8643724.351692524</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>389.7691182433937</v>
       </c>
       <c r="H2" t="n">
-        <v>296.7650756691946</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>84.84244993117485</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>206.1608002224379</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>245.9196712349435</v>
+        <v>371.7085974718431</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544537</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>34.08346683966637</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1138,13 +1138,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>305.1066800675346</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>43.80431246487684</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>101.780687729549</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784681</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>109.8133129120135</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>137.3004314589667</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1587,16 +1587,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.25903264965469</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2092,10 +2092,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>78.03981937612235</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>143.2925104849745</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505273959</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784681</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2955,22 +2955,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0867347140856</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,13 +3009,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>161.4046520073175</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3714,10 +3714,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>206.806426921486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>219.3945611646475</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>280.9016804540294</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>222.2435721011143</v>
       </c>
       <c r="W46" t="n">
-        <v>203.5330926723469</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1540.921096014692</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>1540.921096014692</v>
+        <v>1293.521057189058</v>
       </c>
       <c r="D2" t="n">
-        <v>1182.655397407941</v>
+        <v>935.2553585823075</v>
       </c>
       <c r="E2" t="n">
-        <v>1182.655397407941</v>
+        <v>935.2553585823075</v>
       </c>
       <c r="F2" t="n">
-        <v>771.6694926183338</v>
+        <v>928.309857833104</v>
       </c>
       <c r="G2" t="n">
-        <v>353.7056845165207</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1893.689751284806</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1540.921096014692</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1540.921096014692</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1540.921096014692</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>286.5323736931989</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="C4" t="n">
-        <v>286.5323736931989</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D4" t="n">
-        <v>286.5323736931989</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>286.5323736931989</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>139.6424261952886</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>139.6424261952886</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>139.6424261952886</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4515,25 +4515,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>286.5323736931989</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="U4" t="n">
-        <v>286.5323736931989</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="V4" t="n">
-        <v>286.5323736931989</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="W4" t="n">
-        <v>286.5323736931989</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="X4" t="n">
-        <v>286.5323736931989</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="Y4" t="n">
-        <v>286.5323736931989</v>
+        <v>519.8857516585174</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2307.009759042411</v>
+        <v>2075.803581887074</v>
       </c>
       <c r="C5" t="n">
-        <v>1938.047242101999</v>
+        <v>1706.841064946662</v>
       </c>
       <c r="D5" t="n">
-        <v>1579.781543495249</v>
+        <v>1706.841064946662</v>
       </c>
       <c r="E5" t="n">
-        <v>1193.993290897004</v>
+        <v>1321.052812348418</v>
       </c>
       <c r="F5" t="n">
-        <v>783.0073861073968</v>
+        <v>910.0669075588105</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y5" t="n">
-        <v>2307.009759042411</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="6">
@@ -4655,13 +4655,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>257.3069090307627</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>88.37072610285574</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>818.8658378359718</v>
+        <v>1172.829108994408</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>1172.829108994408</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2652.90231075067</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2652.90231075067</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2652.90231075067</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V8" t="n">
-        <v>2321.839423407099</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W8" t="n">
-        <v>1969.070768136985</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X8" t="n">
-        <v>1595.605009875905</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="Y8" t="n">
-        <v>1205.465677900094</v>
+        <v>1559.428949058529</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W10" t="n">
-        <v>625.3202087220412</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>625.3202087220412</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5035,31 +5035,31 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5083,7 +5083,7 @@
         <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5120,13 +5120,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M12" t="n">
         <v>1228.513823643586</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>554.4977260965287</v>
+        <v>618.0053231677513</v>
       </c>
       <c r="C13" t="n">
-        <v>554.4977260965287</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="D13" t="n">
-        <v>554.4977260965287</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E13" t="n">
-        <v>415.8104215925219</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5202,19 +5202,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>964.1357418247858</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W13" t="n">
-        <v>964.1357418247858</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X13" t="n">
-        <v>736.1461909267684</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="Y13" t="n">
-        <v>736.1461909267684</v>
+        <v>799.653787997991</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5296,34 +5296,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5357,13 +5357,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M15" t="n">
         <v>1228.513823643586</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>734.8632439327646</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5439,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1452.18997495219</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1252.269964867743</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1252.269964867743</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>1252.269964867743</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>1252.269964867743</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>962.8527948307819</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>734.8632439327646</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>734.8632439327646</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5518,7 +5518,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5542,25 +5542,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5594,13 +5594,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M18" t="n">
         <v>1228.513823643586</v>
@@ -5676,19 +5676,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5700,19 +5700,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
         <v>97.21709146028584</v>
@@ -5740,7 +5740,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5770,10 +5770,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>434.3285960683721</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3924131404652</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5940,22 +5940,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1420.088170177981</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>1130.959531391539</v>
       </c>
       <c r="V22" t="n">
-        <v>1354.17636097712</v>
+        <v>876.2750431856521</v>
       </c>
       <c r="W22" t="n">
-        <v>1064.759190940159</v>
+        <v>586.8578731486914</v>
       </c>
       <c r="X22" t="n">
-        <v>836.769640042142</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="Y22" t="n">
-        <v>615.9770608986119</v>
+        <v>358.8683222506741</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -6013,28 +6013,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6174,22 +6174,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1379.229518531123</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
         <v>97.21709146028584</v>
@@ -6208,13 +6208,13 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6226,10 +6226,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6247,7 +6247,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6265,7 +6265,7 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590536</v>
@@ -6411,19 +6411,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X28" t="n">
         <v>97.21709146028584</v>
@@ -6442,31 +6442,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,13 +6481,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>786.0822064765186</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>786.0822064765186</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>635.9655670641829</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>488.0524734817898</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>341.1625259838794</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>341.1625259838794</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6657,16 +6657,16 @@
         <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>786.0822064765186</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>786.0822064765186</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>786.0822064765186</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>786.0822064765186</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6691,19 +6691,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6724,7 +6724,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6964,25 +6964,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7259,22 +7259,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1196.088769018224</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7362,19 +7362,19 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1090.100879744681</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
         <v>97.21709146028584</v>
@@ -7390,49 +7390,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>564.1830073829216</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="C43" t="n">
-        <v>395.2468244550147</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D43" t="n">
-        <v>245.130185042679</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>853.6001774198821</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>853.6001774198821</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W43" t="n">
-        <v>564.1830073829216</v>
+        <v>1215.177199392216</v>
       </c>
       <c r="X43" t="n">
-        <v>564.1830073829216</v>
+        <v>987.1876484941987</v>
       </c>
       <c r="Y43" t="n">
-        <v>564.1830073829216</v>
+        <v>766.3950693506686</v>
       </c>
     </row>
     <row r="44">
@@ -7639,40 +7639,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1187.92115703528</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>933.2366688293931</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="W46" t="n">
-        <v>727.647686332073</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X46" t="n">
-        <v>499.6581354340557</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905255</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>57.43350818661438</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>9.1335311876025</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,10 +23655,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>63.70531975413811</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,13 +24180,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>143.5077416822669</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>108.8451328388535</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24843,22 +24843,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>17.8270936534505</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25125,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>64.3050033817197</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25329,7 +25329,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>30.42394386102401</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25602,10 +25602,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>14.74113413690327</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25836,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>66.84279123392983</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>5.621317882561641</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>29.89407122271373</v>
       </c>
       <c r="W46" t="n">
-        <v>82.98990566424411</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>737661.6364456248</v>
+        <v>737661.6364456249</v>
       </c>
     </row>
     <row r="9">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380333</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380333</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="E2" t="n">
-        <v>645197.9485672193</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="F2" t="n">
         <v>645197.9485672193</v>
       </c>
       <c r="G2" t="n">
+        <v>645197.9485672191</v>
+      </c>
+      <c r="H2" t="n">
+        <v>645197.9485672194</v>
+      </c>
+      <c r="I2" t="n">
+        <v>645197.9485672192</v>
+      </c>
+      <c r="J2" t="n">
         <v>645197.9485672193</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>645197.9485672193</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645197.9485672195</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645197.9485672194</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645197.9485672195</v>
       </c>
       <c r="L2" t="n">
         <v>645197.9485672194</v>
       </c>
       <c r="M2" t="n">
-        <v>645197.9485672192</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="N2" t="n">
-        <v>645197.9485672197</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="O2" t="n">
-        <v>645197.9485672193</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="P2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.9485672194</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,19 +26429,19 @@
         <v>15045.66962143914</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143916</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143915</v>
       </c>
       <c r="H4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.66962143915</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143914</v>
       </c>
       <c r="K4" t="n">
         <v>15045.6696214391</v>
@@ -26496,10 +26496,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-152242.4553911432</v>
+        <v>-152242.4553911434</v>
       </c>
       <c r="C6" t="n">
-        <v>437725.4238234014</v>
+        <v>437725.4238234012</v>
       </c>
       <c r="D6" t="n">
-        <v>437725.4238234014</v>
+        <v>437725.4238234013</v>
       </c>
       <c r="E6" t="n">
-        <v>12030.32526044576</v>
+        <v>12907.45739419559</v>
       </c>
       <c r="F6" t="n">
-        <v>537190.361737342</v>
+        <v>538067.4938710914</v>
       </c>
       <c r="G6" t="n">
-        <v>537190.361737342</v>
+        <v>538067.4938710912</v>
       </c>
       <c r="H6" t="n">
-        <v>537190.361737342</v>
+        <v>538067.4938710916</v>
       </c>
       <c r="I6" t="n">
-        <v>537190.3617373421</v>
+        <v>538067.4938710914</v>
       </c>
       <c r="J6" t="n">
-        <v>360767.1425447491</v>
+        <v>361644.2746784985</v>
       </c>
       <c r="K6" t="n">
-        <v>537190.3617373422</v>
+        <v>538067.4938710915</v>
       </c>
       <c r="L6" t="n">
-        <v>537190.3617373421</v>
+        <v>538067.4938710916</v>
       </c>
       <c r="M6" t="n">
-        <v>402389.3465035046</v>
+        <v>403266.4786372544</v>
       </c>
       <c r="N6" t="n">
-        <v>537190.3617373423</v>
+        <v>538067.4938710916</v>
       </c>
       <c r="O6" t="n">
-        <v>537190.361737342</v>
+        <v>538067.4938710916</v>
       </c>
       <c r="P6" t="n">
-        <v>537190.3617373422</v>
+        <v>538067.4938710916</v>
       </c>
     </row>
   </sheetData>
@@ -26740,19 +26740,19 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>24.01505177740125</v>
       </c>
       <c r="H2" t="n">
-        <v>27.15769709516252</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27539,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27557,7 +27557,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>50.12317186116337</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27587,10 +27587,10 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>18.8743052356464</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27621,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>167.8644987858515</v>
+        <v>42.07557254895187</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831825</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>114.532006178546</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27858,13 +27858,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>49.57636155314839</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>130.6114003440947</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,19 +28067,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>184.742310607042</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28155,7 +28155,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28389,7 +28389,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29058,7 +29058,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.179500941361766e-12</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29340,7 +29340,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31761,40 +31761,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,10 +31834,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31846,7 +31846,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31855,10 +31855,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31934,7 +31934,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31946,10 +31946,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -31998,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,10 +32071,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32083,7 +32083,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32092,10 +32092,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32171,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32235,40 +32235,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,10 +32308,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
@@ -32320,7 +32320,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
@@ -32329,10 +32329,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32408,7 +32408,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32420,10 +32420,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,16 +35023,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,19 +35731,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
         <v>59.82538970349858</v>
@@ -35968,19 +35968,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>526.9295015768312</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37876,13 +37876,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
